--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol.luo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\ciic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423A220B-78E5-4753-804C-C2941EFD3901}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{727C68A0-4AE0-4E6A-8F08-73E5566A5AFF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Company Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +271,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -594,27 +593,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EA0B90-C883-4F08-AFDD-054B1AE36561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="2"/>
+    <col min="3" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,12 +723,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
@@ -737,7 +736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
@@ -745,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -759,7 +758,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
@@ -767,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
@@ -778,7 +777,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
@@ -792,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
@@ -800,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
@@ -811,7 +810,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
@@ -819,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -827,12 +826,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
@@ -846,12 +845,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
@@ -859,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -867,17 +866,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -888,12 +887,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
@@ -904,7 +903,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -915,12 +914,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
@@ -928,23 +927,31 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" s="1">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1" xr:uid="{B7636995-30D7-480E-A1B8-9CCEF2F5BAF7}"/>
+  <autoFilter ref="A1:AJ1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
